--- a/indicators/Ema/Ema.Calc.xlsx
+++ b/indicators/Ema/Ema.Calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{44854321-0817-41AC-88B6-8F8E508133A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4C2910C1-A1EE-4A5B-B519-713683DBFB9F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0CDEE6-C625-46FA-986F-C53019A244B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="EMA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Multiplier">EMA!$P$2</definedName>
+    <definedName name="Multiplier">EMA!$R$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="19">
   <si>
     <t>symbol</t>
   </si>
@@ -79,6 +79,12 @@
   <si>
     <t>tema</t>
   </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
 </sst>
 </file>
 
@@ -89,8 +95,8 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -585,7 +591,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -614,26 +620,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="32" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -683,7 +695,7 @@
     <cellStyle name="Total" xfId="19" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="16" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
     <dxf>
       <font>
         <b val="0"/>
@@ -701,7 +713,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -721,7 +733,58 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -779,7 +842,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -801,17 +864,6 @@
       </font>
       <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -972,30 +1024,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE8A93B-7DCD-4B08-81FC-F6E776229EB3}" name="testdata" displayName="testdata" ref="A1:N503" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Currency" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE8A93B-7DCD-4B08-81FC-F6E776229EB3}" name="testdata" displayName="testdata" ref="A1:P503" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowCellStyle="Currency" dataCellStyle="Currency">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I503">
     <sortCondition ref="D2"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="index" dataDxfId="16" dataCellStyle="Currency"/>
-    <tableColumn id="1" xr3:uid="{DD54CCF5-B894-464C-82C5-1C75A48942B7}" name="symbol" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{4C01765B-A5DE-46C8-AA90-F736AC067C2C}" name="code" dataDxfId="14">
+  <tableColumns count="16">
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="index" dataDxfId="18" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{DD54CCF5-B894-464C-82C5-1C75A48942B7}" name="symbol" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{4C01765B-A5DE-46C8-AA90-F736AC067C2C}" name="code" dataDxfId="16">
       <calculatedColumnFormula>"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D2,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E2&amp;"m, High="&amp;F2&amp;"m, Low="&amp;G2&amp;"m, Close="&amp;H2&amp;"m, Volume = (long)"&amp;I2&amp;" },"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="12" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="11" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{F6126363-2529-4BAC-9F69-0710D7A587F6}" name="low" dataDxfId="10" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{9D524E41-7E60-45BD-80C8-513C8040D514}" name="volume" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{C23C78F6-4EA9-43B4-8A9F-AB3990C28285}" name="ema" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="11" xr3:uid="{AF331C08-A0B2-451B-9B57-2F314A757038}" name="ema2" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="12" xr3:uid="{D45D2996-062B-4CC8-A4CF-62AB41E0E771}" name="ema3" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="13" xr3:uid="{2E5EED1A-0634-43E4-98DA-A1F5E56700D0}" name="dema" dataDxfId="1" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="14" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="13" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{F6126363-2529-4BAC-9F69-0710D7A587F6}" name="low" dataDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{9D524E41-7E60-45BD-80C8-513C8040D514}" name="volume" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{C23C78F6-4EA9-43B4-8A9F-AB3990C28285}" name="ema" dataDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="11" xr3:uid="{AF331C08-A0B2-451B-9B57-2F314A757038}" name="ema2" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="12" xr3:uid="{D45D2996-062B-4CC8-A4CF-62AB41E0E771}" name="ema3" dataDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="13" xr3:uid="{2E5EED1A-0634-43E4-98DA-A1F5E56700D0}" name="dema" dataDxfId="6" dataCellStyle="Currency">
       <calculatedColumnFormula>2*testdata[[#This Row],[ema]]-testdata[[#This Row],[ema2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{4750FFD3-E18D-49A5-82E9-C6DE3061ABD7}" name="tema" dataDxfId="0" dataCellStyle="Currency">
+    <tableColumn id="14" xr3:uid="{4750FFD3-E18D-49A5-82E9-C6DE3061ABD7}" name="tema" dataDxfId="5" dataCellStyle="Currency">
       <calculatedColumnFormula>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{B75BC8C2-0440-4A93-B6F2-8B890BCE7B75}" name="U" dataDxfId="1" dataCellStyle="Currency">
+      <calculatedColumnFormula>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{583122D4-4606-4627-B81D-9C3D3E973944}" name="L" dataDxfId="0" dataCellStyle="Currency">
+      <calculatedColumnFormula>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1003,9 +1061,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BBE57996-5B83-42FC-AAD5-5349F5AFDDB2}" name="Table5" displayName="Table5" ref="P1:P3" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BBE57996-5B83-42FC-AAD5-5349F5AFDDB2}" name="Table5" displayName="Table5" ref="R1:R3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" dataCellStyle="Comma">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{27FF72DA-4D74-4B15-BA48-7E1E6B7BADDE}" name="K" dataDxfId="7" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{27FF72DA-4D74-4B15-BA48-7E1E6B7BADDE}" name="K" dataDxfId="2" dataCellStyle="Comma">
       <calculatedColumnFormula>2/(20+1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1310,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P503"/>
+  <dimension ref="A1:R503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,11 +1384,12 @@
     <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="4"/>
+    <col min="15" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -1373,11 +1432,17 @@
       <c r="N1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="O1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1411,12 +1476,20 @@
       <c r="L2" s="2"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
-      <c r="P2" s="10">
+      <c r="O2" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="10">
         <f>2/(20+1)</f>
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1450,11 +1523,19 @@
       <c r="L3" s="2"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
-      <c r="P3" s="11" t="s">
+      <c r="O3" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1488,8 +1569,16 @@
       <c r="L4" s="2"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1523,8 +1612,16 @@
       <c r="L5" s="2"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O5" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1558,8 +1655,16 @@
       <c r="L6" s="2"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O6" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1593,8 +1698,16 @@
       <c r="L7" s="2"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O7" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1628,8 +1741,16 @@
       <c r="L8" s="2"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O8" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1663,8 +1784,16 @@
       <c r="L9" s="2"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O9" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1698,8 +1827,16 @@
       <c r="L10" s="2"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O10" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1733,8 +1870,16 @@
       <c r="L11" s="2"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1768,8 +1913,16 @@
       <c r="L12" s="2"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1803,8 +1956,16 @@
       <c r="L13" s="2"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1838,8 +1999,16 @@
       <c r="L14" s="2"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O14" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1873,8 +2042,16 @@
       <c r="L15" s="2"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O15" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1908,8 +2085,16 @@
       <c r="L16" s="2"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1943,8 +2128,16 @@
       <c r="L17" s="2"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1978,8 +2171,16 @@
       <c r="L18" s="2"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2013,8 +2214,16 @@
       <c r="L19" s="2"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2048,8 +2257,16 @@
       <c r="L20" s="2"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2086,8 +2303,16 @@
       <c r="L21" s="2"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2124,8 +2349,16 @@
       <c r="L22" s="2"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2162,8 +2395,16 @@
       <c r="L23" s="2"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2200,8 +2441,16 @@
       <c r="L24" s="2"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2238,8 +2487,16 @@
       <c r="L25" s="2"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2268,16 +2525,24 @@
       <c r="I26" s="1">
         <v>61318484</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="17">
         <f>(testdata[[#This Row],[close]]-J25)*Multiplier +J25</f>
         <v>215.09195836611286</v>
       </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="17">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2314,8 +2579,16 @@
       <c r="L27" s="2"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2352,8 +2625,16 @@
       <c r="L28" s="2"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2390,8 +2671,16 @@
       <c r="L29" s="2"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2428,8 +2717,16 @@
       <c r="L30" s="2"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2466,8 +2763,16 @@
       <c r="L31" s="2"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2504,8 +2809,16 @@
       <c r="L32" s="2"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -2542,8 +2855,16 @@
       <c r="L33" s="2"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -2580,8 +2901,16 @@
       <c r="L34" s="2"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -2618,8 +2947,16 @@
       <c r="L35" s="2"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -2656,8 +2993,16 @@
       <c r="L36" s="2"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -2694,8 +3039,16 @@
       <c r="L37" s="2"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -2732,8 +3085,16 @@
       <c r="L38" s="2"/>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -2770,8 +3131,16 @@
       <c r="L39" s="2"/>
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -2809,13 +3178,21 @@
         <v>216.89986403749944</v>
       </c>
       <c r="L40" s="2"/>
-      <c r="M40" s="13">
+      <c r="M40" s="17">
         <f>2*testdata[[#This Row],[ema]]-testdata[[#This Row],[ema2]]</f>
         <v>224.10334001513436</v>
       </c>
-      <c r="N40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N40" s="17"/>
+      <c r="O40" s="17">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="17">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -2858,8 +3235,16 @@
         <v>224.85390428353415</v>
       </c>
       <c r="N41" s="13"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -2902,8 +3287,16 @@
         <v>225.22591807890424</v>
       </c>
       <c r="N42" s="13"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -2946,8 +3339,16 @@
         <v>225.55479179276583</v>
       </c>
       <c r="N43" s="13"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -2990,8 +3391,16 @@
         <v>225.69969937447325</v>
       </c>
       <c r="N44" s="13"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -3034,8 +3443,16 @@
         <v>225.68662191301857</v>
       </c>
       <c r="N45" s="13"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -3078,8 +3495,16 @@
         <v>225.58361181951014</v>
       </c>
       <c r="N46" s="13"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -3122,8 +3547,16 @@
         <v>225.53290639766306</v>
       </c>
       <c r="N47" s="13"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -3166,8 +3599,16 @@
         <v>225.61699645916545</v>
       </c>
       <c r="N48" s="13"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -3210,8 +3651,16 @@
         <v>225.6961994667974</v>
       </c>
       <c r="N49" s="13"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -3254,8 +3703,16 @@
         <v>225.59571757992197</v>
       </c>
       <c r="N50" s="13"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P50" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -3298,8 +3755,16 @@
         <v>225.84919415252577</v>
       </c>
       <c r="N51" s="13"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -3342,8 +3807,16 @@
         <v>225.97597026613093</v>
       </c>
       <c r="N52" s="13"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -3386,8 +3859,16 @@
         <v>226.00114554038703</v>
       </c>
       <c r="N53" s="13"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -3430,8 +3911,16 @@
         <v>225.96650538584032</v>
       </c>
       <c r="N54" s="13"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P54" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -3474,8 +3963,16 @@
         <v>225.40384979097703</v>
       </c>
       <c r="N55" s="13"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P55" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -3518,8 +4015,16 @@
         <v>225.00472491816623</v>
       </c>
       <c r="N56" s="13"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -3562,8 +4067,16 @@
         <v>224.60993358311552</v>
       </c>
       <c r="N57" s="13"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -3606,8 +4119,16 @@
         <v>224.23460613122037</v>
       </c>
       <c r="N58" s="13"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+      <c r="P58" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -3656,8 +4177,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>222.60222369731929</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.16727928975226</v>
+      </c>
+      <c r="P59" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>217.03716810488632</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -3706,8 +4235,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>222.64146898759424</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.2075057122841</v>
+      </c>
+      <c r="P60" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>217.07543226290437</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -3756,8 +4293,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>222.73173079192327</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.30002406172136</v>
+      </c>
+      <c r="P61" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>217.16343752212518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -3806,8 +4351,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>222.99317569070675</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.56800508297442</v>
+      </c>
+      <c r="P62" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>217.41834629843908</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -3856,8 +4409,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>223.07486445551143</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.65173606689922</v>
+      </c>
+      <c r="P63" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>217.49799284412364</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -3906,8 +4467,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>223.04233609612891</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.61839449853213</v>
+      </c>
+      <c r="P64" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>217.46627769372569</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -3956,8 +4525,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>223.05379248453215</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.63013729664544</v>
+      </c>
+      <c r="P65" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>217.47744767241886</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -4006,8 +4583,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>222.89394095127722</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.46628947505914</v>
+      </c>
+      <c r="P66" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>217.32159242749529</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -4056,8 +4641,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>222.92635941041914</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.49951839567962</v>
+      </c>
+      <c r="P67" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>217.35320042515866</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>67</v>
       </c>
@@ -4106,8 +4699,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>222.89609978363146</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.46850227822225</v>
+      </c>
+      <c r="P68" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>217.32369728904067</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -4156,8 +4757,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>222.91053117101745</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69" s="18">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.4832944502929</v>
+      </c>
+      <c r="P69" s="18">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>217.337767891742</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>69</v>
       </c>
@@ -4206,8 +4815,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>222.85526658706422</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.42664825174083</v>
+      </c>
+      <c r="P70" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>217.28388492238761</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -4256,8 +4873,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>222.55891957591078</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.12289256530855</v>
+      </c>
+      <c r="P71" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>216.99494658651301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -4306,8 +4931,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>221.9468574335468</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>227.49552886938545</v>
+      </c>
+      <c r="P72" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>216.39818599770814</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -4356,8 +4989,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>221.96057023137885</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>227.50958448716332</v>
+      </c>
+      <c r="P73" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>216.41155597559438</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -4406,8 +5047,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>221.80574934307211</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>227.3508930766489</v>
+      </c>
+      <c r="P74" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>216.26060560949531</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -4456,8 +5105,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>221.5805040061816</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>227.12001660633615</v>
+      </c>
+      <c r="P75" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>216.04099140602705</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>75</v>
       </c>
@@ -4506,8 +5163,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>221.87411760187103</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>227.42097054191782</v>
+      </c>
+      <c r="P76" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>216.32726466182424</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -4556,8 +5221,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>221.93829244031693</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>227.48674975132485</v>
+      </c>
+      <c r="P77" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>216.38983512930901</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -4606,8 +5279,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>222.63038736975437</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.19614705399823</v>
+      </c>
+      <c r="P78" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>217.06462768551052</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -4656,8 +5337,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>223.54107925435895</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>229.12960623571792</v>
+      </c>
+      <c r="P79" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>217.95255227299998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -4706,8 +5395,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>224.2501908125075</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>229.85644558282019</v>
+      </c>
+      <c r="P80" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>218.64393604219481</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -4756,8 +5453,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>224.87565143518651</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>230.49754272106617</v>
+      </c>
+      <c r="P81" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>219.25376014930686</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -4806,8 +5511,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>225.25300756754896</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>230.88433275673768</v>
+      </c>
+      <c r="P82" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>219.62168237836025</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -4856,8 +5569,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>225.70000317654919</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>231.34250325596292</v>
+      </c>
+      <c r="P83" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>220.05750309713545</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -4906,8 +5627,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>226.07529445352478</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>231.7271768148629</v>
+      </c>
+      <c r="P84" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>220.42341209218665</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -4956,8 +5685,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>226.29959435696097</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>231.957084215885</v>
+      </c>
+      <c r="P85" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>220.64210449803693</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -5006,8 +5743,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>226.53692510337578</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>232.20034823096017</v>
+      </c>
+      <c r="P86" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>220.87350197579138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -5056,8 +5801,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>226.94789725946654</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>232.6215946909532</v>
+      </c>
+      <c r="P87" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>221.27419982797988</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -5106,8 +5859,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>227.26148833598225</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>232.94302554438181</v>
+      </c>
+      <c r="P88" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>221.57995112758269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -5156,8 +5917,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>227.44764217833841</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>233.13383323279686</v>
+      </c>
+      <c r="P89" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>221.76145112387997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -5206,8 +5975,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>227.68991032440664</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>233.38215808251681</v>
+      </c>
+      <c r="P90" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>221.99766256629647</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -5256,8 +6033,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>227.74970070825611</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>233.44344322596251</v>
+      </c>
+      <c r="P91" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>222.05595819054972</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -5306,8 +6091,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>227.68365769319502</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>233.3757491355249</v>
+      </c>
+      <c r="P92" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>221.99156625086513</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -5356,8 +6149,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>227.93838841821375</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>233.6368481286691</v>
+      </c>
+      <c r="P93" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>222.23992870775839</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -5406,8 +6207,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>228.0774430310156</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>233.779379106791</v>
+      </c>
+      <c r="P94" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>222.37550695524021</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -5456,8 +6265,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>227.12831290279959</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>232.80652072536958</v>
+      </c>
+      <c r="P95" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>221.4501050802296</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -5506,8 +6323,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>226.57283670703097</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>232.23715762470675</v>
+      </c>
+      <c r="P96" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>220.90851578935519</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -5556,8 +6381,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>226.48959698801457</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>232.15183691271494</v>
+      </c>
+      <c r="P97" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>220.8273570633142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -5606,8 +6439,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>226.71471465932609</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>232.38258252580926</v>
+      </c>
+      <c r="P98" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>221.04684679284293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -5656,8 +6497,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>227.02626552927211</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>232.70192216750391</v>
+      </c>
+      <c r="P99" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>221.35060889104031</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -5706,8 +6555,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>227.4127272274111</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>233.09804540809637</v>
+      </c>
+      <c r="P100" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>221.72740904672582</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -5756,8 +6613,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>228.00434890740871</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>233.70445763009394</v>
+      </c>
+      <c r="P101" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>222.30424018472348</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -5806,8 +6671,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>228.46614603366822</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>234.17779968450992</v>
+      </c>
+      <c r="P102" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>222.75449238282653</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -5856,8 +6729,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>228.78060702947133</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>234.5001222052081</v>
+      </c>
+      <c r="P103" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>223.06109185373455</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>103</v>
       </c>
@@ -5906,8 +6787,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>229.00946645200526</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O104" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>234.73470311330539</v>
+      </c>
+      <c r="P104" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>223.28422979070513</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -5956,8 +6845,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>229.65783912943746</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O105" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>235.39928510767339</v>
+      </c>
+      <c r="P105" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>223.91639315120153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -6006,8 +6903,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>230.37318975206324</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O106" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>236.13251949586481</v>
+      </c>
+      <c r="P106" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>224.61386000826167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -6056,8 +6961,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>230.89427770987157</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>236.66663465261837</v>
+      </c>
+      <c r="P107" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>225.12192076712478</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>107</v>
       </c>
@@ -6106,8 +7019,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>231.10890863305042</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O108" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>236.88663134887668</v>
+      </c>
+      <c r="P108" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>225.33118591722416</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -6156,8 +7077,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>231.37540728461084</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O109" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>237.15979246672612</v>
+      </c>
+      <c r="P109" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>225.59102210249557</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>109</v>
       </c>
@@ -6206,8 +7135,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>231.6039320466262</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O110" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>237.39403034779184</v>
+      </c>
+      <c r="P110" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>225.81383374546056</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -6256,8 +7193,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>231.67682499689383</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O111" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>237.46874562181617</v>
+      </c>
+      <c r="P111" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>225.88490437197149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -6306,8 +7251,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>231.70579872320957</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>237.49844369128982</v>
+      </c>
+      <c r="P112" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>225.91315375512931</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>112</v>
       </c>
@@ -6356,8 +7309,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.00326762863321</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>237.80334931934905</v>
+      </c>
+      <c r="P113" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.20318593791737</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>113</v>
       </c>
@@ -6406,8 +7367,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.14995364136618</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>237.95370248240033</v>
+      </c>
+      <c r="P114" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.34620480033203</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -6456,8 +7425,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.13692500243096</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O115" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>237.94034812749175</v>
+      </c>
+      <c r="P115" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.33350187737017</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>115</v>
       </c>
@@ -6506,8 +7483,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.12110147773544</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O116" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>237.92412901467881</v>
+      </c>
+      <c r="P116" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.31807394079206</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>116</v>
       </c>
@@ -6556,8 +7541,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.58924463251068</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.40397574832346</v>
+      </c>
+      <c r="P117" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.77451351669791</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>117</v>
       </c>
@@ -6606,8 +7599,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.54823237349706</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.36193818283448</v>
+      </c>
+      <c r="P118" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.73452656415964</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>118</v>
       </c>
@@ -6656,8 +7657,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.48207985435644</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.29413185071536</v>
+      </c>
+      <c r="P119" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.67002785799752</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>119</v>
       </c>
@@ -6706,8 +7715,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.386370949455</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.19603022319137</v>
+      </c>
+      <c r="P120" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.57671167571863</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>120</v>
       </c>
@@ -6756,8 +7773,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.36390565582957</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.17300329722531</v>
+      </c>
+      <c r="P121" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.55480801443383</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>121</v>
       </c>
@@ -6806,8 +7831,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.37413969205994</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.18349318436145</v>
+      </c>
+      <c r="P122" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.56478619975843</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>122</v>
       </c>
@@ -6856,8 +7889,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>231.88555247285251</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>237.68269128467381</v>
+      </c>
+      <c r="P123" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.08841366103121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>123</v>
       </c>
@@ -6906,8 +7947,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.0100985192648</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>237.81035098224643</v>
+      </c>
+      <c r="P124" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.20984605628317</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>124</v>
       </c>
@@ -6956,8 +8005,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>231.57480517617026</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>237.36417530557452</v>
+      </c>
+      <c r="P125" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>225.785435046766</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>125</v>
       </c>
@@ -7006,8 +8063,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>231.32337236810801</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O126" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>237.10645667731072</v>
+      </c>
+      <c r="P126" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>225.5402880589053</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>126</v>
       </c>
@@ -7056,8 +8121,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>231.21444367121572</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O127" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>236.99480476299613</v>
+      </c>
+      <c r="P127" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>225.43408257943531</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>127</v>
       </c>
@@ -7106,8 +8179,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>231.25985546904425</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O128" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>237.04135185577036</v>
+      </c>
+      <c r="P128" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>225.47835908231815</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>128</v>
       </c>
@@ -7156,8 +8237,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>230.74479274201062</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O129" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>236.51341256056088</v>
+      </c>
+      <c r="P129" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>224.97617292346035</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>129</v>
       </c>
@@ -7206,8 +8295,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>230.70884476453034</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O130" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>236.47656588364359</v>
+      </c>
+      <c r="P130" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>224.94112364541709</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>130</v>
       </c>
@@ -7256,8 +8353,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>230.74513747723017</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O131" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>236.51376591416093</v>
+      </c>
+      <c r="P131" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>224.97650904029942</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>131</v>
       </c>
@@ -7306,8 +8411,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>230.73175226248458</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O132" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>236.5000460690467</v>
+      </c>
+      <c r="P132" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>224.96345845592245</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>132</v>
       </c>
@@ -7356,8 +8469,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>231.17055190771447</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O133" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>236.94981570540733</v>
+      </c>
+      <c r="P133" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>225.39128811002161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>133</v>
       </c>
@@ -7406,8 +8527,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>231.6308929440506</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O134" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>237.42166526765186</v>
+      </c>
+      <c r="P134" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>225.84012062044934</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>134</v>
       </c>
@@ -7456,8 +8585,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.28817867031987</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O135" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.09538313707787</v>
+      </c>
+      <c r="P135" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.48097420356186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>135</v>
       </c>
@@ -7506,8 +8643,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.81346339966544</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O136" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.63379998465706</v>
+      </c>
+      <c r="P136" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.99312681467381</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>136</v>
       </c>
@@ -7556,8 +8701,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>233.26945218459636</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O137" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>239.10118848921127</v>
+      </c>
+      <c r="P137" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>227.43771587998145</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>137</v>
       </c>
@@ -7606,8 +8759,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>233.95973425821543</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O138" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>239.80872761467083</v>
+      </c>
+      <c r="P138" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.11074090176004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>138</v>
       </c>
@@ -7656,8 +8817,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>234.54111807286375</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O139" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.40464602468535</v>
+      </c>
+      <c r="P139" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.67759012104216</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>139</v>
       </c>
@@ -7706,8 +8875,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>234.94776172088632</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O140" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.82145576390849</v>
+      </c>
+      <c r="P140" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>229.07406767786415</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>140</v>
       </c>
@@ -7756,8 +8933,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>235.24856876405138</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O141" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.12978298315267</v>
+      </c>
+      <c r="P141" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>229.3673545449501</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>141</v>
       </c>
@@ -7806,8 +8991,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>235.62527557127888</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O142" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.51590746056084</v>
+      </c>
+      <c r="P142" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>229.73464368199691</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>142</v>
       </c>
@@ -7856,8 +9049,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>235.91812226303594</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O143" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.81607531961183</v>
+      </c>
+      <c r="P143" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>230.02016920646005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>143</v>
       </c>
@@ -7906,8 +9107,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>236.08199872162501</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O144" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.98404868966563</v>
+      </c>
+      <c r="P144" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>230.1799487535844</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>144</v>
       </c>
@@ -7956,8 +9165,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>236.1272748494396</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O145" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>242.0304567206756</v>
+      </c>
+      <c r="P145" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>230.2240929782036</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>145</v>
       </c>
@@ -8006,8 +9223,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>236.1097928481386</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O146" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>242.01253766934207</v>
+      </c>
+      <c r="P146" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>230.20704802693513</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>146</v>
       </c>
@@ -8056,8 +9281,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>236.21577585082386</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O147" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>242.12117024709445</v>
+      </c>
+      <c r="P147" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>230.31038145455327</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>147</v>
       </c>
@@ -8106,8 +9339,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>236.31473026770865</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O148" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>242.22259852440138</v>
+      </c>
+      <c r="P148" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>230.40686201101593</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>148</v>
       </c>
@@ -8156,8 +9397,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>236.2631825623032</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O149" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>242.16976212636078</v>
+      </c>
+      <c r="P149" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>230.35660299824562</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>149</v>
       </c>
@@ -8206,8 +9455,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>236.31498716671146</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O150" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>242.22286184587924</v>
+      </c>
+      <c r="P150" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>230.40711248754369</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>150</v>
       </c>
@@ -8256,8 +9513,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>236.45754954123532</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O151" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>242.3689882797662</v>
+      </c>
+      <c r="P151" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>230.54611080270445</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>151</v>
       </c>
@@ -8306,8 +9571,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>236.41025363139528</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O152" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>242.32050997218016</v>
+      </c>
+      <c r="P152" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>230.49999729061039</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>152</v>
       </c>
@@ -8356,8 +9629,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>236.3560450591232</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O153" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>242.26494618560127</v>
+      </c>
+      <c r="P153" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>230.44714393264513</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>153</v>
       </c>
@@ -8406,8 +9687,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>235.43622056102924</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O154" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.32212607505497</v>
+      </c>
+      <c r="P154" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>229.55031504700352</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>154</v>
       </c>
@@ -8456,8 +9745,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>234.76573945801667</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O155" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.63488294446708</v>
+      </c>
+      <c r="P155" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.89659597156626</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>155</v>
       </c>
@@ -8506,8 +9803,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>234.80997749672864</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O156" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.68022693414684</v>
+      </c>
+      <c r="P156" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.93972805931043</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>156</v>
       </c>
@@ -8556,8 +9861,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>234.83953662344166</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O157" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.71052503902771</v>
+      </c>
+      <c r="P157" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.9685482078556</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>157</v>
       </c>
@@ -8606,8 +9919,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>234.96867086037037</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O158" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.84288763187962</v>
+      </c>
+      <c r="P158" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>229.09445408886111</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>158</v>
       </c>
@@ -8656,8 +9977,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>234.12091714072545</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O159" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>239.97394006924358</v>
+      </c>
+      <c r="P159" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.26789421220732</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>159</v>
       </c>
@@ -8706,8 +10035,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>233.33162665902165</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O160" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>239.16491732549719</v>
+      </c>
+      <c r="P160" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>227.49833599254612</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>160</v>
       </c>
@@ -8756,8 +10093,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.73732148014128</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O161" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.55575451714481</v>
+      </c>
+      <c r="P161" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.91888844313775</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>161</v>
       </c>
@@ -8806,8 +10151,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.88975441187949</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O162" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.71199827217649</v>
+      </c>
+      <c r="P162" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>227.0675105515825</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>162</v>
       </c>
@@ -8856,8 +10209,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.80613988584309</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O163" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.62629338298916</v>
+      </c>
+      <c r="P163" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.98598638869703</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>163</v>
       </c>
@@ -8906,8 +10267,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.60397384227963</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O164" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.41907318833663</v>
+      </c>
+      <c r="P164" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.78887449622263</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>164</v>
       </c>
@@ -8956,8 +10325,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.59047581910534</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O165" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.40523771458297</v>
+      </c>
+      <c r="P165" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.77571392362771</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>165</v>
       </c>
@@ -9006,8 +10383,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.59153083326686</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O166" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.40631910409854</v>
+      </c>
+      <c r="P166" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.77674256243517</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>166</v>
       </c>
@@ -9056,8 +10441,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>232.66895967888019</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O167" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.48568367085218</v>
+      </c>
+      <c r="P167" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>226.85223568690819</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>167</v>
       </c>
@@ -9106,8 +10499,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>233.02875146855291</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O168" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.85447025526673</v>
+      </c>
+      <c r="P168" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>227.20303268183909</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>168</v>
       </c>
@@ -9156,8 +10557,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>233.69592977795276</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O169" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>239.53832802240157</v>
+      </c>
+      <c r="P169" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>227.85353153350394</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>169</v>
       </c>
@@ -9206,8 +10615,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>234.33155454233204</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O170" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.18984340589034</v>
+      </c>
+      <c r="P170" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.47326567877374</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>170</v>
       </c>
@@ -9256,8 +10673,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>234.41380865062374</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O171" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.27415386688932</v>
+      </c>
+      <c r="P171" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.55346343435815</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>171</v>
       </c>
@@ -9306,8 +10731,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>234.6870581407461</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O172" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.55423459426476</v>
+      </c>
+      <c r="P172" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>228.81988168722745</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>172</v>
       </c>
@@ -9356,8 +10789,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>234.90054669567576</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O173" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.77306036306766</v>
+      </c>
+      <c r="P173" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>229.02803302828386</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>173</v>
       </c>
@@ -9406,8 +10847,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>234.99915047282599</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O174" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.87412923464663</v>
+      </c>
+      <c r="P174" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>229.12417171100535</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>174</v>
       </c>
@@ -9456,8 +10905,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>235.72674913325258</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O175" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.6199178615839</v>
+      </c>
+      <c r="P175" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>229.83358040492126</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>175</v>
       </c>
@@ -9506,8 +10963,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>236.52374079956013</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O176" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>242.43683431954912</v>
+      </c>
+      <c r="P176" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>230.61064727957114</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>176</v>
       </c>
@@ -9556,8 +11021,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>237.19747219890897</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O177" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>243.1274090038817</v>
+      </c>
+      <c r="P177" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>231.26753539393624</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>177</v>
       </c>
@@ -9606,8 +11079,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>237.71508843154683</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O178" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>243.65796564233551</v>
+      </c>
+      <c r="P178" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>231.77221122075815</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>178</v>
       </c>
@@ -9656,8 +11137,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>238.20624185597563</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O179" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>244.16139790237503</v>
+      </c>
+      <c r="P179" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>232.25108580957624</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>179</v>
       </c>
@@ -9706,8 +11195,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>238.72320992844254</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O180" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>244.69129017665361</v>
+      </c>
+      <c r="P180" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>232.75512968023148</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>180</v>
       </c>
@@ -9756,8 +11253,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>239.1895800661685</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O181" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>245.16931956782273</v>
+      </c>
+      <c r="P181" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>233.20984056451428</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>181</v>
       </c>
@@ -9806,8 +11311,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>239.5715023875224</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O182" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>245.56078994721045</v>
+      </c>
+      <c r="P182" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>233.58221482783435</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>182</v>
       </c>
@@ -9856,8 +11369,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>239.69647478344331</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O183" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>245.68888665302939</v>
+      </c>
+      <c r="P183" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>233.70406291385723</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>183</v>
       </c>
@@ -9906,8 +11427,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>239.78998353372637</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O184" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>245.78473312206953</v>
+      </c>
+      <c r="P184" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>233.79523394538322</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>184</v>
       </c>
@@ -9956,8 +11485,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>239.71835708492054</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O185" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>245.71131601204357</v>
+      </c>
+      <c r="P185" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>233.72539815779751</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>185</v>
       </c>
@@ -10006,8 +11543,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>239.67873308236082</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O186" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>245.67070140941985</v>
+      </c>
+      <c r="P186" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>233.68676475530179</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>186</v>
       </c>
@@ -10056,8 +11601,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>239.86649339885378</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O187" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>245.86315573382512</v>
+      </c>
+      <c r="P187" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>233.86983106388243</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>187</v>
       </c>
@@ -10106,8 +11659,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>240.07769024083001</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O188" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>246.07963249685076</v>
+      </c>
+      <c r="P188" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>234.07574798480925</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>188</v>
       </c>
@@ -10156,8 +11717,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>240.45333661867244</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O189" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>246.46467003413926</v>
+      </c>
+      <c r="P189" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>234.44200320320562</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>189</v>
       </c>
@@ -10206,8 +11775,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>241.01239516889208</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O190" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>247.03770504811439</v>
+      </c>
+      <c r="P190" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>234.98708528966978</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>190</v>
       </c>
@@ -10256,8 +11833,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>241.58534283595986</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O191" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>247.62497640685885</v>
+      </c>
+      <c r="P191" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>235.54570926506088</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>191</v>
       </c>
@@ -10306,8 +11891,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>242.10559717189153</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O192" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>248.15823710118883</v>
+      </c>
+      <c r="P192" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>236.05295724259423</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
         <v>192</v>
       </c>
@@ -10356,8 +11949,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>242.88197845319431</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O193" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>248.95402791452418</v>
+      </c>
+      <c r="P193" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>236.80992899186444</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>193</v>
       </c>
@@ -10406,8 +12007,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>243.41983829062335</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O194" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>249.50533424788892</v>
+      </c>
+      <c r="P194" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>237.33434233335777</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>194</v>
       </c>
@@ -10456,8 +12065,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>243.72935213825798</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O195" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>249.82258594171444</v>
+      </c>
+      <c r="P195" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>237.63611833480152</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
         <v>195</v>
       </c>
@@ -10506,8 +12123,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>244.12107036672117</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O196" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>250.22409712588919</v>
+      </c>
+      <c r="P196" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.01804360755315</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>196</v>
       </c>
@@ -10556,8 +12181,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>244.51503519741414</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O197" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>250.62791107734949</v>
+      </c>
+      <c r="P197" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.40215931747878</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>197</v>
       </c>
@@ -10606,8 +12239,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>244.71331851024419</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O198" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>250.83115147300029</v>
+      </c>
+      <c r="P198" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.5954855474881</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>198</v>
       </c>
@@ -10656,8 +12297,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>244.92535185644732</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O199" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.04848565285852</v>
+      </c>
+      <c r="P199" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>238.80221806003613</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>199</v>
       </c>
@@ -10706,8 +12355,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>245.15705141519248</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O200" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.28597770057229</v>
+      </c>
+      <c r="P200" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>239.02812512981268</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
         <v>200</v>
       </c>
@@ -10756,8 +12413,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>245.36386738087413</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O201" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.49796406539599</v>
+      </c>
+      <c r="P201" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>239.22977069635226</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
         <v>201</v>
       </c>
@@ -10806,8 +12471,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>245.56898417024993</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O202" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.70820877450618</v>
+      </c>
+      <c r="P202" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>239.42975956599369</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>202</v>
       </c>
@@ -10856,8 +12529,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>245.72658837071103</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O203" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.86975307997881</v>
+      </c>
+      <c r="P203" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>239.58342366144325</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>203</v>
       </c>
@@ -10906,8 +12587,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>246.1598090115524</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O204" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.31380423684121</v>
+      </c>
+      <c r="P204" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.00581378626359</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>204</v>
       </c>
@@ -10956,8 +12645,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>246.24027666904809</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O205" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.39628358577428</v>
+      </c>
+      <c r="P205" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.08426975232189</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>205</v>
       </c>
@@ -11006,8 +12703,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>246.39277269353559</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O206" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.55259201087398</v>
+      </c>
+      <c r="P206" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.2329533761972</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
         <v>206</v>
       </c>
@@ -11056,8 +12761,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>246.17984720046238</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O207" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.33434338047394</v>
+      </c>
+      <c r="P207" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.02535102045081</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
         <v>207</v>
       </c>
@@ -11106,8 +12819,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>246.06376928862366</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O208" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.21536352083925</v>
+      </c>
+      <c r="P208" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>239.91217505640807</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
         <v>208</v>
       </c>
@@ -11156,8 +12877,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>246.46763758049639</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O209" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.62932852000878</v>
+      </c>
+      <c r="P209" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.30594664098399</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
         <v>209</v>
       </c>
@@ -11206,8 +12935,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>246.54032532963404</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O210" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.70383346287488</v>
+      </c>
+      <c r="P210" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.3768171963932</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
         <v>210</v>
       </c>
@@ -11256,8 +12993,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>246.68175465591744</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O211" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.84879852231538</v>
+      </c>
+      <c r="P211" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.51471078951951</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>211</v>
       </c>
@@ -11306,8 +13051,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>246.8620401661328</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O212" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.03359117028612</v>
+      </c>
+      <c r="P212" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.69048916197949</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>212</v>
       </c>
@@ -11356,8 +13109,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>247.01748935887139</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O213" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.19292659284318</v>
+      </c>
+      <c r="P213" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>240.8420521248996</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
         <v>213</v>
       </c>
@@ -11406,8 +13167,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>247.33971338954012</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O214" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.52320622427862</v>
+      </c>
+      <c r="P214" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.15622055480162</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
         <v>214</v>
       </c>
@@ -11456,8 +13225,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>247.68688138252463</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O215" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.87905341708776</v>
+      </c>
+      <c r="P215" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.4947093479615</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
         <v>215</v>
       </c>
@@ -11506,8 +13283,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>247.90608089911584</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O216" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.10373292159375</v>
+      </c>
+      <c r="P216" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.70842887663792</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
         <v>216</v>
       </c>
@@ -11556,8 +13341,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>248.17850409428502</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O217" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.38296669664214</v>
+      </c>
+      <c r="P217" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.97404149192789</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
         <v>217</v>
       </c>
@@ -11606,8 +13399,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>248.14949993868737</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O218" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.35323743715455</v>
+      </c>
+      <c r="P218" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.94576244022019</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
         <v>218</v>
       </c>
@@ -11656,8 +13457,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>248.0870780941041</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O219" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.2892550464567</v>
+      </c>
+      <c r="P219" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.8849011417515</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
         <v>219</v>
       </c>
@@ -11706,8 +13515,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>248.07919064125142</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O220" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.2811704072827</v>
+      </c>
+      <c r="P220" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.87721087522013</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
         <v>220</v>
       </c>
@@ -11756,8 +13573,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>247.90720204452916</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O221" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.10488209564238</v>
+      </c>
+      <c r="P221" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.70952199341593</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
         <v>221</v>
       </c>
@@ -11806,8 +13631,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>247.43387039054167</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O222" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.61971715030521</v>
+      </c>
+      <c r="P222" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.24802363077814</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
         <v>222</v>
       </c>
@@ -11856,8 +13689,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>247.57769922434539</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O223" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.76714170495404</v>
+      </c>
+      <c r="P223" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.38825674373675</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
         <v>223</v>
       </c>
@@ -11906,8 +13747,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>247.49700571576599</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O224" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.68443085866014</v>
+      </c>
+      <c r="P224" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.30958057287185</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
         <v>224</v>
       </c>
@@ -11956,8 +13805,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>247.53139792966709</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O225" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.71968287790878</v>
+      </c>
+      <c r="P225" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.34311298142541</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>225</v>
       </c>
@@ -12006,8 +13863,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>247.97207512624541</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O226" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.17137700440156</v>
+      </c>
+      <c r="P226" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.77277324808927</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>226</v>
       </c>
@@ -12056,8 +13921,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>248.26747776033412</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O227" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.47416470434246</v>
+      </c>
+      <c r="P227" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>242.06079081632578</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
         <v>227</v>
       </c>
@@ -12106,8 +13979,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>248.64760633461884</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O228" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.86379649298431</v>
+      </c>
+      <c r="P228" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>242.43141617625338</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
         <v>228</v>
       </c>
@@ -12156,8 +14037,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>248.91707990724001</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O229" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>255.14000690492099</v>
+      </c>
+      <c r="P229" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>242.69415290955902</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
         <v>229</v>
       </c>
@@ -12206,8 +14095,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>249.78237951821501</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O230" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>256.02693900617038</v>
+      </c>
+      <c r="P230" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>243.53782003025964</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
         <v>230</v>
       </c>
@@ -12256,8 +14153,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>250.43810576267819</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O231" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>256.69905840674517</v>
+      </c>
+      <c r="P231" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>244.17715311861124</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="8">
         <v>231</v>
       </c>
@@ -12306,8 +14211,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>251.52872025239557</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O232" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.81693825870548</v>
+      </c>
+      <c r="P232" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>245.24050224608567</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
         <v>232</v>
       </c>
@@ -12356,8 +14269,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>252.26370831868229</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O233" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>258.57030102664936</v>
+      </c>
+      <c r="P233" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>245.95711561071522</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
         <v>233</v>
       </c>
@@ -12406,8 +14327,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>252.76371652442398</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O234" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.08280943753459</v>
+      </c>
+      <c r="P234" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>246.44462361131338</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
         <v>234</v>
       </c>
@@ -12456,8 +14385,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>252.91138928774834</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O235" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.23417401994203</v>
+      </c>
+      <c r="P235" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>246.58860455555464</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="8">
         <v>235</v>
       </c>
@@ -12506,8 +14443,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>253.01694233549273</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O236" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.34236589388007</v>
+      </c>
+      <c r="P236" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>246.69151877710541</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="8">
         <v>236</v>
       </c>
@@ -12556,8 +14501,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>253.28607758957367</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O237" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.618229529313</v>
+      </c>
+      <c r="P237" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>246.95392564983433</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="8">
         <v>237</v>
       </c>
@@ -12606,8 +14559,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>253.84011574966743</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O238" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>260.18611864340915</v>
+      </c>
+      <c r="P238" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>247.49411285592575</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
         <v>238</v>
       </c>
@@ -12656,8 +14617,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>254.46849740404502</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O239" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>260.83020983914616</v>
+      </c>
+      <c r="P239" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>248.10678496894388</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
         <v>239</v>
       </c>
@@ -12706,8 +14675,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>255.07317492038425</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O240" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>261.45000429339387</v>
+      </c>
+      <c r="P240" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>248.69634554737465</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
         <v>240</v>
       </c>
@@ -12756,8 +14733,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>255.53234806613429</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O241" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>261.92065676778765</v>
+      </c>
+      <c r="P241" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>249.14403936448093</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
         <v>241</v>
       </c>
@@ -12806,8 +14791,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>255.60680270148666</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O242" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>261.99697276902384</v>
+      </c>
+      <c r="P242" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>249.2166326339495</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
         <v>242</v>
       </c>
@@ -12856,8 +14849,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>256.18895737156799</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O243" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>262.59368130585722</v>
+      </c>
+      <c r="P243" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>249.7842334372788</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
         <v>243</v>
       </c>
@@ -12906,8 +14907,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>257.05965478833889</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O244" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>263.48614615804735</v>
+      </c>
+      <c r="P244" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>250.63316341863043</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
         <v>244</v>
       </c>
@@ -12956,8 +14965,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>257.48494381194303</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O245" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>263.92206740724163</v>
+      </c>
+      <c r="P245" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.04782021664445</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
         <v>245</v>
       </c>
@@ -13006,8 +15023,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>257.76460234976821</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O246" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.20871740851243</v>
+      </c>
+      <c r="P246" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.32048729102399</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
         <v>246</v>
       </c>
@@ -13056,8 +15081,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>258.0989789811382</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O247" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.55145345566666</v>
+      </c>
+      <c r="P247" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.64650450660974</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
         <v>247</v>
       </c>
@@ -13106,8 +15139,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>258.32550405077313</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O248" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.78364165204243</v>
+      </c>
+      <c r="P248" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.86736644950381</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
         <v>248</v>
       </c>
@@ -13156,8 +15197,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>258.39942380664257</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O249" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.85940940180865</v>
+      </c>
+      <c r="P249" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.9394382114765</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
         <v>249</v>
       </c>
@@ -13206,8 +15255,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>258.46114830282573</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O250" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.9226770103964</v>
+      </c>
+      <c r="P250" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.9996195952551</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
         <v>250</v>
       </c>
@@ -13256,8 +15313,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>258.62080137543558</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O251" s="18">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>265.08632140982149</v>
+      </c>
+      <c r="P251" s="18">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.15528134104969</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
         <v>251</v>
       </c>
@@ -13306,8 +15371,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>258.4728254198169</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O252" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.93464605531233</v>
+      </c>
+      <c r="P252" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.01100478432147</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
         <v>252</v>
       </c>
@@ -13356,8 +15429,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>258.80362845324294</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O253" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>265.273719164574</v>
+      </c>
+      <c r="P253" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.33353774191187</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
         <v>253</v>
       </c>
@@ -13406,8 +15487,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>259.47566532128155</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O254" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>265.96255695431358</v>
+      </c>
+      <c r="P254" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.98877368824952</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
         <v>254</v>
       </c>
@@ -13456,8 +15545,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>260.28333083073881</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O255" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>266.79041410150728</v>
+      </c>
+      <c r="P255" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.77624755997033</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
         <v>255</v>
       </c>
@@ -13506,8 +15603,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>261.37095327191116</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O256" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.90522710370897</v>
+      </c>
+      <c r="P256" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.83667944011339</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
         <v>256</v>
       </c>
@@ -13556,8 +15661,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>262.35510503738362</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O257" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>268.91398266331822</v>
+      </c>
+      <c r="P257" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>255.79622741144902</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
         <v>257</v>
       </c>
@@ -13606,8 +15719,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>263.28216512576074</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O258" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>269.86421925390476</v>
+      </c>
+      <c r="P258" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>256.70011099761672</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
         <v>258</v>
       </c>
@@ -13656,8 +15777,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>263.8976287002564</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O259" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.49506941776281</v>
+      </c>
+      <c r="P259" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.30018798275</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
         <v>259</v>
       </c>
@@ -13706,8 +15835,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>264.86319799531162</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O260" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>271.48477794519442</v>
+      </c>
+      <c r="P260" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>258.24161804542882</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
         <v>260</v>
       </c>
@@ -13756,8 +15893,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>266.06170058047843</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O261" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>272.71324309499039</v>
+      </c>
+      <c r="P261" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.41015806596647</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
         <v>261</v>
       </c>
@@ -13806,8 +15951,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>266.76292524988366</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O262" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>273.43199838113077</v>
+      </c>
+      <c r="P262" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>260.09385211863656</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
         <v>262</v>
       </c>
@@ -13856,8 +16009,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>267.9496048757527</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O263" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>274.64834499764652</v>
+      </c>
+      <c r="P263" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>261.25086475385888</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
         <v>263</v>
       </c>
@@ -13906,8 +16067,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>268.75597377013224</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O264" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>275.47487311438556</v>
+      </c>
+      <c r="P264" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>262.03707442587893</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
         <v>264</v>
       </c>
@@ -13956,8 +16125,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>269.68188027853603</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O265" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>276.42392728549942</v>
+      </c>
+      <c r="P265" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>262.93983327157264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
         <v>265</v>
       </c>
@@ -14006,8 +16183,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>270.95832987260872</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O266" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>277.73228811942391</v>
+      </c>
+      <c r="P266" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.18437162579352</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
         <v>266</v>
       </c>
@@ -14056,8 +16241,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>272.09630265871499</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O267" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>278.89871022518287</v>
+      </c>
+      <c r="P267" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>265.29389509224711</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
         <v>267</v>
       </c>
@@ -14106,8 +16299,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>272.94410759851581</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O268" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>279.76771028847872</v>
+      </c>
+      <c r="P268" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>266.1205049085529</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
         <v>268</v>
       </c>
@@ -14156,8 +16357,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>273.60714241798524</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O269" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>280.4473209784349</v>
+      </c>
+      <c r="P269" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>266.76696385753559</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
         <v>269</v>
       </c>
@@ -14206,8 +16415,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>274.90965336183763</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O270" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>281.78239469588357</v>
+      </c>
+      <c r="P270" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>268.03691202779169</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
         <v>270</v>
       </c>
@@ -14256,8 +16473,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>275.43982405382667</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O271" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>282.32581965517232</v>
+      </c>
+      <c r="P271" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>268.55382845248101</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
         <v>271</v>
       </c>
@@ -14306,8 +16531,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>275.08256135166096</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O272" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>281.95962538545245</v>
+      </c>
+      <c r="P272" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>268.20549731786946</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>272</v>
       </c>
@@ -14356,8 +16589,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>274.76745909182227</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O273" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>281.63664556911783</v>
+      </c>
+      <c r="P273" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.89827261452672</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>273</v>
       </c>
@@ -14406,8 +16647,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>274.37565052969495</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O274" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>281.23504179293735</v>
+      </c>
+      <c r="P274" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.51625926645255</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
         <v>274</v>
       </c>
@@ -14456,8 +16705,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>272.47391572731618</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O275" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>279.2857636204991</v>
+      </c>
+      <c r="P275" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>265.66206783413327</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
         <v>275</v>
       </c>
@@ -14506,8 +16763,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>268.00200858994731</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O276" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>274.70205880469598</v>
+      </c>
+      <c r="P276" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>261.30195837519864</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
         <v>276</v>
       </c>
@@ -14556,8 +16821,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>265.6217872284127</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O277" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>272.26233190912302</v>
+      </c>
+      <c r="P277" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>258.98124254770238</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
         <v>277</v>
       </c>
@@ -14606,8 +16879,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>263.30838701793556</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O278" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>269.89109669338393</v>
+      </c>
+      <c r="P278" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>256.72567734248719</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" s="8">
         <v>278</v>
       </c>
@@ -14656,8 +16937,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>258.92036653196249</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O279" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>265.39337569526157</v>
+      </c>
+      <c r="P279" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.44735736866343</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" s="8">
         <v>279</v>
       </c>
@@ -14706,8 +16995,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>256.32741239225959</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O280" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>262.73559770206606</v>
+      </c>
+      <c r="P280" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>249.91922708245309</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
         <v>280</v>
       </c>
@@ -14756,8 +17053,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>255.2134322237149</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O281" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>261.5937680293078</v>
+      </c>
+      <c r="P281" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>248.83309641812204</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
         <v>281</v>
       </c>
@@ -14806,8 +17111,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>254.52154624911935</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O282" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>260.88458490534731</v>
+      </c>
+      <c r="P282" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>248.15850759289137</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
         <v>282</v>
       </c>
@@ -14856,8 +17169,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>254.91141351891537</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O283" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>261.28419885688822</v>
+      </c>
+      <c r="P283" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>248.53862818094248</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
         <v>283</v>
       </c>
@@ -14906,8 +17227,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>256.14588779869462</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O284" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>262.54953499366201</v>
+      </c>
+      <c r="P284" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>249.74224060372725</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
         <v>284</v>
       </c>
@@ -14956,8 +17285,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>257.22692686079324</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O285" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>263.6576000323131</v>
+      </c>
+      <c r="P285" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>250.79625368927341</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" s="8">
         <v>285</v>
       </c>
@@ -15006,8 +17343,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>257.72513331392815</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O286" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.16826164677639</v>
+      </c>
+      <c r="P286" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.28200498107995</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>286</v>
       </c>
@@ -15056,8 +17401,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>257.83087603157742</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O287" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.27664793236687</v>
+      </c>
+      <c r="P287" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.38510413078799</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" s="8">
         <v>287</v>
       </c>
@@ -15106,8 +17459,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>258.03743820162759</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O288" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.48837415666827</v>
+      </c>
+      <c r="P288" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.58650224658692</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" s="8">
         <v>288</v>
       </c>
@@ -15156,8 +17517,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>259.31232695047828</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O289" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>265.79513512424023</v>
+      </c>
+      <c r="P289" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.82951877671633</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
         <v>289</v>
       </c>
@@ -15206,8 +17575,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>261.17615422040257</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O290" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.70555807591262</v>
+      </c>
+      <c r="P290" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.64675036489251</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291" s="8">
         <v>290</v>
       </c>
@@ -15256,8 +17633,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>261.84995415489641</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O291" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>268.39620300876879</v>
+      </c>
+      <c r="P291" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>255.303705301024</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292" s="8">
         <v>291</v>
       </c>
@@ -15306,8 +17691,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>261.71340381280027</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O292" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>268.25623890812028</v>
+      </c>
+      <c r="P292" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>255.17056871748025</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
         <v>292</v>
       </c>
@@ -15356,8 +17749,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>260.62130289334817</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O293" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.13683546568188</v>
+      </c>
+      <c r="P293" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.10577032101446</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
         <v>293</v>
       </c>
@@ -15406,8 +17807,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>260.08062665630115</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O294" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>266.58264232270869</v>
+      </c>
+      <c r="P294" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.57861098989363</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>294</v>
       </c>
@@ -15456,8 +17865,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>260.42577878285562</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O295" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>266.93642325242701</v>
+      </c>
+      <c r="P295" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.91513431328423</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
         <v>295</v>
       </c>
@@ -15506,8 +17923,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>260.89416108042957</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O296" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.41651510744032</v>
+      </c>
+      <c r="P296" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.37180705341882</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
         <v>296</v>
       </c>
@@ -15556,8 +17981,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>261.26090038395893</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O297" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.7924228935579</v>
+      </c>
+      <c r="P297" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.72937787435995</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
         <v>297</v>
       </c>
@@ -15606,8 +18039,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>261.89705908335725</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O298" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>268.44448556044119</v>
+      </c>
+      <c r="P298" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>255.3496326062733</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299" s="8">
         <v>298</v>
       </c>
@@ -15656,8 +18097,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>263.61441179102019</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O299" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.2047720857957</v>
+      </c>
+      <c r="P299" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.02405149624468</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300" s="8">
         <v>299</v>
       </c>
@@ -15706,8 +18155,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>264.92901524583266</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O300" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>271.55224062697846</v>
+      </c>
+      <c r="P300" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>258.30578986468686</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301" s="8">
         <v>300</v>
       </c>
@@ -15756,8 +18213,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>265.54551313293081</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O301" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>272.18415096125409</v>
+      </c>
+      <c r="P301" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>258.90687530460752</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A302" s="8">
         <v>301</v>
       </c>
@@ -15806,8 +18271,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>265.67938887389209</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O302" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>272.32137359573937</v>
+      </c>
+      <c r="P302" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.03740415204481</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
         <v>302</v>
       </c>
@@ -15856,8 +18329,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>265.69715457423041</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O303" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>272.33958343858615</v>
+      </c>
+      <c r="P303" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.05472570987467</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
         <v>303</v>
       </c>
@@ -15906,8 +18387,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>265.77079234988378</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O304" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>272.41506215863086</v>
+      </c>
+      <c r="P304" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.12652254113669</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
         <v>304</v>
       </c>
@@ -15956,8 +18445,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>264.88444326782576</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O305" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>271.50655434952142</v>
+      </c>
+      <c r="P305" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>258.2623321861301</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306" s="8">
         <v>305</v>
       </c>
@@ -16006,8 +18503,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>264.26057696086508</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O306" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.86709138488669</v>
+      </c>
+      <c r="P306" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.65406253684347</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307" s="8">
         <v>306</v>
       </c>
@@ -16056,8 +18561,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>263.61246674797104</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O307" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.2027784166703</v>
+      </c>
+      <c r="P307" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.02215507927178</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308" s="8">
         <v>307</v>
       </c>
@@ -16106,8 +18619,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>261.38177207610539</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O308" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.91631637800805</v>
+      </c>
+      <c r="P308" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.84722777420276</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309" s="8">
         <v>308</v>
       </c>
@@ -16156,8 +18677,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>258.15149884489006</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O309" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.60528631601233</v>
+      </c>
+      <c r="P309" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.69771137376782</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310" s="8">
         <v>309</v>
       </c>
@@ -16206,8 +18735,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>257.29724366283006</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O310" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>263.72967475440083</v>
+      </c>
+      <c r="P310" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>250.86481257125931</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A311" s="8">
         <v>310</v>
       </c>
@@ -16256,8 +18793,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>255.49543574054996</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O311" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>261.8828216340637</v>
+      </c>
+      <c r="P311" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>249.10804984703623</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" s="8">
         <v>311</v>
       </c>
@@ -16306,8 +18851,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>253.85994451609548</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O312" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>260.20644312899788</v>
+      </c>
+      <c r="P312" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>247.51344590319309</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313" s="8">
         <v>312</v>
       </c>
@@ -16356,8 +18909,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>253.39503774291319</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O313" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.72991368648604</v>
+      </c>
+      <c r="P313" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>247.06016179934036</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A314" s="8">
         <v>313</v>
       </c>
@@ -16406,8 +18967,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>251.63517755733454</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O314" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.9260569962679</v>
+      </c>
+      <c r="P314" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>245.34429811840118</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A315" s="8">
         <v>314</v>
       </c>
@@ -16456,8 +19025,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>251.07018187102364</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O315" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.34693641779921</v>
+      </c>
+      <c r="P315" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>244.79342732424806</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A316" s="8">
         <v>315</v>
       </c>
@@ -16506,8 +19083,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>251.35968279711653</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O316" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.64367486704447</v>
+      </c>
+      <c r="P316" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>245.07569072718863</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A317" s="8">
         <v>316</v>
       </c>
@@ -16556,8 +19141,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>252.16753947135192</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O317" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>258.47172795813572</v>
+      </c>
+      <c r="P317" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>245.86335098456811</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318" s="8">
         <v>317</v>
       </c>
@@ -16606,8 +19199,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>251.3865015970091</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O318" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.67116413693435</v>
+      </c>
+      <c r="P318" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>245.10183905708388</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A319" s="8">
         <v>318</v>
       </c>
@@ -16656,8 +19257,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>251.11013764739056</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O319" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.38789108857532</v>
+      </c>
+      <c r="P319" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>244.8323842062058</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320" s="8">
         <v>319</v>
       </c>
@@ -16706,8 +19315,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>251.96833143890296</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O320" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>258.26753972487552</v>
+      </c>
+      <c r="P320" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>245.66912315293038</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321" s="8">
         <v>320</v>
       </c>
@@ -16756,8 +19373,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>252.35841500043057</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O321" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>258.66737537544134</v>
+      </c>
+      <c r="P321" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>246.0494546254198</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" s="8">
         <v>321</v>
       </c>
@@ -16806,8 +19431,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>253.25459994323535</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O322" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.58596494181626</v>
+      </c>
+      <c r="P322" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>246.92323494465447</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" s="8">
         <v>322</v>
       </c>
@@ -16856,8 +19489,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>253.82046558230769</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O323" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>260.16597722186538</v>
+      </c>
+      <c r="P323" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>247.47495394275001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
         <v>323</v>
       </c>
@@ -16906,8 +19547,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>254.849578373979</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O324" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>261.22081783332845</v>
+      </c>
+      <c r="P324" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>248.47833891462952</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
         <v>324</v>
       </c>
@@ -16956,8 +19605,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>256.42600624759092</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O325" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>262.83665640378069</v>
+      </c>
+      <c r="P325" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>250.01535609140115</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" s="8">
         <v>325</v>
       </c>
@@ -17006,8 +19663,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>257.7732265970559</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O326" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.21755726198228</v>
+      </c>
+      <c r="P326" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.32889593212951</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
         <v>326</v>
       </c>
@@ -17056,8 +19721,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>258.49902115844469</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O327" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.96149668740583</v>
+      </c>
+      <c r="P327" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.03654562948358</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
         <v>327</v>
       </c>
@@ -17106,8 +19779,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>258.51590100585332</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O328" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.97879853099965</v>
+      </c>
+      <c r="P328" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.05300348070699</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" s="8">
         <v>328</v>
       </c>
@@ -17156,8 +19837,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>258.51086563079963</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O329" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.9736372715696</v>
+      </c>
+      <c r="P329" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.04809399002963</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330" s="8">
         <v>329</v>
       </c>
@@ -17206,8 +19895,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>257.59843849595717</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O330" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.03839945835608</v>
+      </c>
+      <c r="P330" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.15847753355823</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
         <v>330</v>
       </c>
@@ -17256,8 +19953,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>257.00934849700326</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O331" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>263.43458220942836</v>
+      </c>
+      <c r="P331" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>250.58411478457819</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A332" s="8">
         <v>331</v>
       </c>
@@ -17306,8 +20011,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>257.1973624681213</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O332" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>263.62729652982432</v>
+      </c>
+      <c r="P332" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>250.76742840641828</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
         <v>332</v>
       </c>
@@ -17356,8 +20069,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>257.41290110545202</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O333" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>263.84822363308831</v>
+      </c>
+      <c r="P333" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>250.97757857781573</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
         <v>333</v>
       </c>
@@ -17406,8 +20127,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>257.07395333292396</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O334" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>263.50080216624707</v>
+      </c>
+      <c r="P334" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>250.64710449960086</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
         <v>334</v>
       </c>
@@ -17456,8 +20185,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>256.91166010768387</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O335" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>263.33445161037599</v>
+      </c>
+      <c r="P335" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>250.48886860499178</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
         <v>335</v>
       </c>
@@ -17506,8 +20243,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>256.3323904717044</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O336" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>262.74070023349702</v>
+      </c>
+      <c r="P336" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>249.92408070991178</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
         <v>336</v>
       </c>
@@ -17556,8 +20301,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>255.71451672267614</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O337" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>262.10737964074303</v>
+      </c>
+      <c r="P337" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>249.32165380460924</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
         <v>337</v>
       </c>
@@ -17606,8 +20359,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>256.06656592576826</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O338" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>262.46823007391248</v>
+      </c>
+      <c r="P338" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>249.66490177762404</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
         <v>338</v>
       </c>
@@ -17656,8 +20417,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>256.585185195728</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O339" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>262.99981482562123</v>
+      </c>
+      <c r="P339" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>250.1705555658348</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
         <v>339</v>
       </c>
@@ -17706,8 +20475,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>257.01179371731996</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O340" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>263.43708856025296</v>
+      </c>
+      <c r="P340" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>250.58649887438696</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
         <v>340</v>
       </c>
@@ -17756,8 +20533,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>258.0061578070052</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O341" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.45631175218034</v>
+      </c>
+      <c r="P341" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.55600386183008</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
         <v>341</v>
       </c>
@@ -17806,8 +20591,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>259.44840616987159</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O342" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>265.93461632411839</v>
+      </c>
+      <c r="P342" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.96219601562481</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" s="8">
         <v>342</v>
       </c>
@@ -17856,8 +20649,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>260.8255384941624</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O343" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.34617695651644</v>
+      </c>
+      <c r="P343" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.30490003180833</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A344" s="8">
         <v>343</v>
       </c>
@@ -17906,8 +20707,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>261.96856451836987</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O344" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>268.51777863132912</v>
+      </c>
+      <c r="P344" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>255.41935040541063</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" s="8">
         <v>344</v>
       </c>
@@ -17956,8 +20765,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>262.4083513923631</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O345" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>268.96856017717221</v>
+      </c>
+      <c r="P345" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>255.84814260755402</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A346" s="8">
         <v>345</v>
       </c>
@@ -18006,8 +20823,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>263.02683885541563</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O346" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>269.602509826801</v>
+      </c>
+      <c r="P346" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>256.45116788403027</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
         <v>346</v>
       </c>
@@ -18056,8 +20881,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>263.44777633339493</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O347" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.03397074172977</v>
+      </c>
+      <c r="P347" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>256.86158192506008</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
         <v>347</v>
       </c>
@@ -18106,8 +20939,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>263.59158620063147</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O348" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.18137585564727</v>
+      </c>
+      <c r="P348" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.00179654561566</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349" s="8">
         <v>348</v>
       </c>
@@ -18156,8 +20997,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>264.19074321176623</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O349" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.79551179206038</v>
+      </c>
+      <c r="P349" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.58597463147208</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
         <v>349</v>
       </c>
@@ -18206,8 +21055,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>264.46191610236076</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O350" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>271.0734640049198</v>
+      </c>
+      <c r="P350" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.85036819980172</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
         <v>350</v>
       </c>
@@ -18256,8 +21113,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>264.84000668933965</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O351" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>271.46100685657314</v>
+      </c>
+      <c r="P351" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>258.21900652210616</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
         <v>351</v>
       </c>
@@ -18306,8 +21171,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>264.97875369003833</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O352" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>271.60322253228929</v>
+      </c>
+      <c r="P352" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>258.35428484778737</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" s="8">
         <v>352</v>
       </c>
@@ -18356,8 +21229,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>264.89856839617033</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O353" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>271.52103260607458</v>
+      </c>
+      <c r="P353" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>258.27610418626608</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" s="8">
         <v>353</v>
       </c>
@@ -18406,8 +21287,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>264.02083408748229</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O354" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.62135493966935</v>
+      </c>
+      <c r="P354" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.42031323529523</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" s="8">
         <v>354</v>
       </c>
@@ -18456,8 +21345,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>264.17775801564767</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O355" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.78220196603888</v>
+      </c>
+      <c r="P355" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.57331406525645</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356" s="8">
         <v>355</v>
       </c>
@@ -18506,8 +21403,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>263.86474184397531</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O356" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.46136039007467</v>
+      </c>
+      <c r="P356" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.26812329787595</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" s="8">
         <v>356</v>
       </c>
@@ -18556,8 +21461,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>264.2580894275107</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O357" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.86454166319845</v>
+      </c>
+      <c r="P357" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.65163719182294</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358" s="8">
         <v>357</v>
       </c>
@@ -18606,8 +21519,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>264.88562708251078</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O358" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>271.50776775957354</v>
+      </c>
+      <c r="P358" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>258.26348640544802</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" s="8">
         <v>358</v>
       </c>
@@ -18656,8 +21577,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>265.43094746042811</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O359" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>272.06672114693879</v>
+      </c>
+      <c r="P359" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>258.79517377391744</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" s="8">
         <v>359</v>
       </c>
@@ -18706,8 +21635,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>266.43100582642626</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O360" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>273.09178097208689</v>
+      </c>
+      <c r="P360" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.77023068076562</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" s="8">
         <v>360</v>
       </c>
@@ -18756,8 +21693,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>267.21693246142996</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O361" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>273.89735577296574</v>
+      </c>
+      <c r="P361" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>260.53650914989419</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362" s="8">
         <v>361</v>
       </c>
@@ -18806,8 +21751,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>268.03701267720857</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O362" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>274.7379379941388</v>
+      </c>
+      <c r="P362" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>261.33608736027833</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363" s="8">
         <v>362</v>
       </c>
@@ -18856,8 +21809,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>268.77092556528993</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O363" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>275.4901987044222</v>
+      </c>
+      <c r="P363" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>262.05165242615766</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A364" s="8">
         <v>363</v>
       </c>
@@ -18906,8 +21867,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>269.42940679946895</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O364" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>276.16514196945565</v>
+      </c>
+      <c r="P364" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>262.69367162948225</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A365" s="8">
         <v>364</v>
       </c>
@@ -18956,8 +21925,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>269.71056781555342</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O365" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>276.45333201094223</v>
+      </c>
+      <c r="P365" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>262.9678036201646</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A366" s="8">
         <v>365</v>
       </c>
@@ -19006,8 +21983,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>270.08187482902133</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O366" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>276.83392169974684</v>
+      </c>
+      <c r="P366" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>263.32982795829582</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A367" s="8">
         <v>366</v>
       </c>
@@ -19056,8 +22041,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>270.26018842301397</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O367" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>277.01669313358934</v>
+      </c>
+      <c r="P367" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>263.5036837124386</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A368" s="8">
         <v>367</v>
       </c>
@@ -19106,8 +22099,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>270.22929508689708</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O368" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>276.9850274640695</v>
+      </c>
+      <c r="P368" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>263.47356270972466</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A369" s="8">
         <v>368</v>
       </c>
@@ -19156,8 +22157,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>269.90434993488634</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O369" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>276.6519586832585</v>
+      </c>
+      <c r="P369" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>263.15674118651418</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A370" s="8">
         <v>369</v>
       </c>
@@ -19206,8 +22215,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>269.72811991635774</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O370" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>276.47132291426669</v>
+      </c>
+      <c r="P370" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>262.98491691844879</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A371" s="8">
         <v>370</v>
       </c>
@@ -19256,8 +22273,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>269.12175950430753</v>
       </c>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O371" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>275.84980349191522</v>
+      </c>
+      <c r="P371" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>262.39371551669984</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A372" s="8">
         <v>371</v>
       </c>
@@ -19306,8 +22331,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>268.72733545032298</v>
       </c>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O372" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>275.44551883658107</v>
+      </c>
+      <c r="P372" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>262.00915206406489</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A373" s="8">
         <v>372</v>
       </c>
@@ -19356,8 +22389,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>267.44454911074376</v>
       </c>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O373" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>274.13066283851236</v>
+      </c>
+      <c r="P373" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>260.75843538297516</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A374" s="8">
         <v>373</v>
       </c>
@@ -19406,8 +22447,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>266.5322934121711</v>
       </c>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O374" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>273.1956007474754</v>
+      </c>
+      <c r="P374" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.8689860768668</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A375" s="8">
         <v>374</v>
       </c>
@@ -19456,8 +22505,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>265.21428711044848</v>
       </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O375" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>271.84464428820968</v>
+      </c>
+      <c r="P375" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>258.58392993268728</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A376" s="8">
         <v>375</v>
       </c>
@@ -19506,8 +22563,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>264.52258377852615</v>
       </c>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O376" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>271.13564837298929</v>
+      </c>
+      <c r="P376" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.90951918406302</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A377" s="8">
         <v>376</v>
       </c>
@@ -19556,8 +22621,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>264.06122850685256</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O377" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.66275921952388</v>
+      </c>
+      <c r="P377" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.45969779418124</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A378" s="8">
         <v>377</v>
       </c>
@@ -19606,8 +22679,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>263.83811828013188</v>
       </c>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O378" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.43407123713519</v>
+      </c>
+      <c r="P378" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.24216532312857</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A379" s="8">
         <v>378</v>
       </c>
@@ -19656,8 +22737,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>263.42515078428204</v>
       </c>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O379" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.01077955388911</v>
+      </c>
+      <c r="P379" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>256.83952201467497</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A380" s="8">
         <v>379</v>
       </c>
@@ -19706,8 +22795,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>263.65698926119865</v>
       </c>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O380" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.24841399272862</v>
+      </c>
+      <c r="P380" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.06556452966868</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A381" s="8">
         <v>380</v>
       </c>
@@ -19756,8 +22853,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>264.44001814655502</v>
       </c>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O381" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>271.05101860021887</v>
+      </c>
+      <c r="P381" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.82901769289117</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A382" s="8">
         <v>381</v>
       </c>
@@ -19806,8 +22911,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>265.71515804037449</v>
       </c>
-    </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O382" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>272.35803699138387</v>
+      </c>
+      <c r="P382" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.07227908936511</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A383" s="8">
         <v>382</v>
       </c>
@@ -19856,8 +22969,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>267.01384346143516</v>
       </c>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O383" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>273.68918954797101</v>
+      </c>
+      <c r="P383" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>260.3384973748993</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A384" s="8">
         <v>383</v>
       </c>
@@ -19906,8 +23027,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>267.55981516521746</v>
       </c>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O384" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>274.24881054434792</v>
+      </c>
+      <c r="P384" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>260.870819786087</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A385" s="8">
         <v>384</v>
       </c>
@@ -19956,8 +23085,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>268.63151074004759</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O385" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>275.34729850854876</v>
+      </c>
+      <c r="P385" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>261.91572297154642</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A386" s="8">
         <v>385</v>
       </c>
@@ -20006,8 +23143,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>269.55141145362478</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O386" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>276.29019673996538</v>
+      </c>
+      <c r="P386" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>262.81262616728418</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A387" s="8">
         <v>386</v>
       </c>
@@ -20056,8 +23201,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>270.22582584678685</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O387" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>276.98147149295653</v>
+      </c>
+      <c r="P387" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>263.47018020061716</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A388" s="8">
         <v>387</v>
       </c>
@@ -20106,8 +23259,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>271.04362874277888</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O388" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>277.81971946134837</v>
+      </c>
+      <c r="P388" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.26753802420939</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389" s="8">
         <v>388</v>
       </c>
@@ -20156,8 +23317,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>271.83855411231792</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O389" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>278.63451796512589</v>
+      </c>
+      <c r="P389" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>265.04259025950995</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A390" s="8">
         <v>389</v>
       </c>
@@ -20206,8 +23375,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>272.19681953432911</v>
       </c>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O390" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>279.00174002268733</v>
+      </c>
+      <c r="P390" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>265.39189904597089</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A391" s="8">
         <v>390</v>
       </c>
@@ -20256,8 +23433,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>272.38285131246153</v>
       </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O391" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>279.19242259527306</v>
+      </c>
+      <c r="P391" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>265.57328002964999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A392" s="8">
         <v>391</v>
       </c>
@@ -20306,8 +23491,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>272.63814376724832</v>
       </c>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O392" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>279.45409736142955</v>
+      </c>
+      <c r="P392" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>265.8221901730671</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A393" s="8">
         <v>392</v>
       </c>
@@ -20356,8 +23549,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>273.17620534110495</v>
       </c>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O393" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>280.00561047463259</v>
+      </c>
+      <c r="P393" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>266.3468002075773</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A394" s="8">
         <v>393</v>
       </c>
@@ -20406,8 +23607,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>274.19678729219311</v>
       </c>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O394" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>281.05170697449796</v>
+      </c>
+      <c r="P394" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.34186760988825</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A395" s="8">
         <v>394</v>
       </c>
@@ -20456,8 +23665,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>274.83170631580458</v>
       </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O395" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>281.70249897369968</v>
+      </c>
+      <c r="P395" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.96091365790949</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A396" s="8">
         <v>395</v>
       </c>
@@ -20506,8 +23723,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>274.83707814584454</v>
       </c>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O396" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>281.70800509949066</v>
+      </c>
+      <c r="P396" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.96615119219842</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A397" s="8">
         <v>396</v>
       </c>
@@ -20556,8 +23781,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>274.4388943579425</v>
       </c>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O397" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>281.29986671689107</v>
+      </c>
+      <c r="P397" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.57792199899393</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A398" s="8">
         <v>397</v>
       </c>
@@ -20606,8 +23839,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>274.43180140640993</v>
       </c>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O398" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>281.2925964415702</v>
+      </c>
+      <c r="P398" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.57100637124967</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A399" s="8">
         <v>398</v>
       </c>
@@ -20656,8 +23897,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>274.28341178842317</v>
       </c>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O399" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>281.14049708313377</v>
+      </c>
+      <c r="P399" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.42632649371257</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A400" s="8">
         <v>399</v>
       </c>
@@ -20706,8 +23955,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>274.5219932124761</v>
       </c>
-    </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O400" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>281.38504304278803</v>
+      </c>
+      <c r="P400" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.65894338216418</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A401" s="8">
         <v>400</v>
       </c>
@@ -20756,8 +24013,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>275.00080282091227</v>
       </c>
-    </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O401" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>281.87582289143506</v>
+      </c>
+      <c r="P401" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>268.12578275038948</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A402" s="8">
         <v>401</v>
       </c>
@@ -20806,8 +24071,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>275.63171475377624</v>
       </c>
-    </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O402" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>282.52250762262065</v>
+      </c>
+      <c r="P402" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>268.74092188493182</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A403" s="8">
         <v>402</v>
       </c>
@@ -20856,8 +24129,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>276.35973508843944</v>
       </c>
-    </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O403" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>283.26872846565044</v>
+      </c>
+      <c r="P403" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>269.45074171122843</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A404" s="8">
         <v>403</v>
       </c>
@@ -20906,8 +24187,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>276.89805623816102</v>
       </c>
-    </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O404" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>283.82050764411503</v>
+      </c>
+      <c r="P404" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>269.97560483220701</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A405" s="8">
         <v>404</v>
       </c>
@@ -20956,8 +24245,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>277.21458331048774</v>
       </c>
-    </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O405" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>284.14494789324993</v>
+      </c>
+      <c r="P405" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.28421872772554</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A406" s="8">
         <v>405</v>
       </c>
@@ -21006,8 +24303,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>276.96261857497427</v>
       </c>
-    </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O406" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>283.88668403934861</v>
+      </c>
+      <c r="P406" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.03855311059993</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A407" s="8">
         <v>406</v>
       </c>
@@ -21056,8 +24361,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>276.46224626133835</v>
       </c>
-    </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O407" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>283.37380241787179</v>
+      </c>
+      <c r="P407" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>269.55069010480491</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A408" s="8">
         <v>407</v>
       </c>
@@ -21106,8 +24419,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>276.48332112593221</v>
       </c>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O408" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>283.3954041540805</v>
+      </c>
+      <c r="P408" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>269.57123809778392</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A409" s="8">
         <v>408</v>
       </c>
@@ -21156,8 +24477,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>275.94584140229853</v>
       </c>
-    </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O409" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>282.84448743735601</v>
+      </c>
+      <c r="P409" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>269.04719536724105</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A410" s="8">
         <v>409</v>
       </c>
@@ -21206,8 +24535,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>276.06143721725783</v>
       </c>
-    </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O410" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>282.9629731476893</v>
+      </c>
+      <c r="P410" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>269.15990128682637</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A411" s="8">
         <v>410</v>
       </c>
@@ -21256,8 +24593,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>276.39494179035734</v>
       </c>
-    </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O411" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>283.30481533511625</v>
+      </c>
+      <c r="P411" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>269.48506824559843</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A412" s="8">
         <v>411</v>
       </c>
@@ -21306,8 +24651,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>276.80558593353703</v>
       </c>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O412" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>283.72572558187545</v>
+      </c>
+      <c r="P412" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>269.88544628519861</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A413" s="8">
         <v>412</v>
       </c>
@@ -21356,8 +24709,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>277.29407735086863</v>
       </c>
-    </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O413" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>284.22642928464035</v>
+      </c>
+      <c r="P413" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.36172541709692</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A414" s="8">
         <v>413</v>
       </c>
@@ -21406,8 +24767,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>277.632381732255</v>
       </c>
-    </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O414" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>284.57319127556138</v>
+      </c>
+      <c r="P414" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.69157218894861</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A415" s="8">
         <v>414</v>
       </c>
@@ -21456,8 +24825,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>277.79490900885594</v>
       </c>
-    </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O415" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>284.73978173407733</v>
+      </c>
+      <c r="P415" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.85003628363455</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A416" s="8">
         <v>415</v>
       </c>
@@ -21506,8 +24883,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>278.34520533080121</v>
       </c>
-    </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O416" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>285.30383546407126</v>
+      </c>
+      <c r="P416" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>271.38657519753116</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A417" s="8">
         <v>416</v>
       </c>
@@ -21556,8 +24941,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>279.3471544232234</v>
       </c>
-    </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O417" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>286.330833283804</v>
+      </c>
+      <c r="P417" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>272.3634755626428</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A418" s="8">
         <v>417</v>
       </c>
@@ -21606,8 +24999,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>280.18167981750361</v>
       </c>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O418" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>287.1862218129412</v>
+      </c>
+      <c r="P418" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>273.17713782206602</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A419" s="8">
         <v>418</v>
       </c>
@@ -21656,8 +25057,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>281.23107395412831</v>
       </c>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O419" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>288.26185080298148</v>
+      </c>
+      <c r="P419" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>274.20029710527513</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A420" s="8">
         <v>419</v>
       </c>
@@ -21706,8 +25115,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>281.76565317830989</v>
       </c>
-    </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O420" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>288.80979450776766</v>
+      </c>
+      <c r="P420" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>274.72151184885212</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A421" s="8">
         <v>420</v>
       </c>
@@ -21756,8 +25173,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>282.17213377310173</v>
       </c>
-    </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O421" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>289.22643711742927</v>
+      </c>
+      <c r="P421" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>275.1178304287742</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A422" s="8">
         <v>421</v>
       </c>
@@ -21806,8 +25231,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>282.34871964922991</v>
       </c>
-    </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O422" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>289.40743764046067</v>
+      </c>
+      <c r="P422" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>275.29000165799914</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A423" s="8">
         <v>422</v>
       </c>
@@ -21856,8 +25289,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>282.26495006706307</v>
       </c>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O423" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>289.32157381873964</v>
+      </c>
+      <c r="P423" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>275.2083263153865</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A424" s="8">
         <v>423</v>
       </c>
@@ -21906,8 +25347,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>281.9490534934705</v>
       </c>
-    </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O424" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>288.99777983080725</v>
+      </c>
+      <c r="P424" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>274.90032715613376</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A425" s="8">
         <v>424</v>
       </c>
@@ -21956,8 +25405,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>281.52132667792051</v>
       </c>
-    </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O425" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>288.55935984486854</v>
+      </c>
+      <c r="P425" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>274.48329351097249</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A426" s="8">
         <v>425</v>
       </c>
@@ -22006,8 +25463,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>281.27552506326271</v>
       </c>
-    </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O426" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>288.30741318984428</v>
+      </c>
+      <c r="P426" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>274.24363693668113</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A427" s="8">
         <v>426</v>
       </c>
@@ -22056,8 +25521,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>281.29350165111748</v>
       </c>
-    </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O427" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>288.32583919239539</v>
+      </c>
+      <c r="P427" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>274.26116410983957</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A428" s="8">
         <v>427</v>
       </c>
@@ -22106,8 +25579,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>281.30890445677733</v>
       </c>
-    </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O428" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>288.34162706819677</v>
+      </c>
+      <c r="P428" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>274.27618184535788</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A429" s="8">
         <v>428</v>
       </c>
@@ -22156,8 +25637,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>281.73577256101566</v>
       </c>
-    </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O429" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>288.77916687504103</v>
+      </c>
+      <c r="P429" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>274.6923782469903</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A430" s="8">
         <v>429</v>
       </c>
@@ -22206,8 +25695,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>282.08187977872575</v>
       </c>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O430" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>289.13392677319388</v>
+      </c>
+      <c r="P430" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>275.02983278425762</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A431" s="8">
         <v>430</v>
       </c>
@@ -22256,8 +25753,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>281.95900359698561</v>
       </c>
-    </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O431" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>289.00797868691023</v>
+      </c>
+      <c r="P431" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>274.91002850706099</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A432" s="8">
         <v>431</v>
       </c>
@@ -22306,8 +25811,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>282.23877827511899</v>
       </c>
-    </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O432" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>289.29474773199695</v>
+      </c>
+      <c r="P432" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>275.18280881824103</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A433" s="8">
         <v>432</v>
       </c>
@@ -22356,8 +25869,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>282.52989354256556</v>
       </c>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O433" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>289.59314088112967</v>
+      </c>
+      <c r="P433" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>275.46664620400145</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A434" s="8">
         <v>433</v>
       </c>
@@ -22406,8 +25927,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>283.34606903575889</v>
       </c>
-    </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O434" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>290.42972076165285</v>
+      </c>
+      <c r="P434" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>276.26241730986493</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A435" s="8">
         <v>434</v>
       </c>
@@ -22456,8 +25985,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>283.92885959424973</v>
       </c>
-    </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O435" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>291.02708108410599</v>
+      </c>
+      <c r="P435" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>276.83063810439347</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A436" s="8">
         <v>435</v>
       </c>
@@ -22506,8 +26043,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>284.13919612880312</v>
       </c>
-    </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O436" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>291.24267603202321</v>
+      </c>
+      <c r="P436" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>277.03571622558303</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A437" s="8">
         <v>436</v>
       </c>
@@ -22556,8 +26101,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>284.22291187279711</v>
       </c>
-    </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O437" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>291.32848466961707</v>
+      </c>
+      <c r="P437" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>277.11733907597716</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A438" s="8">
         <v>437</v>
       </c>
@@ -22606,8 +26159,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>284.05060211058083</v>
       </c>
-    </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O438" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>291.15186716334534</v>
+      </c>
+      <c r="P438" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>276.94933705781631</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A439" s="8">
         <v>438</v>
       </c>
@@ -22656,8 +26217,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>284.09571825700351</v>
       </c>
-    </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O439" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>291.1981112134286</v>
+      </c>
+      <c r="P439" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>276.99332530057842</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A440" s="8">
         <v>439</v>
       </c>
@@ -22706,8 +26275,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>284.12332777895142</v>
       </c>
-    </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O440" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>291.22641097342523</v>
+      </c>
+      <c r="P440" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>277.02024458447761</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A441" s="8">
         <v>440</v>
       </c>
@@ -22756,8 +26333,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>284.38662454777511</v>
       </c>
-    </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O441" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>291.49629016146952</v>
+      </c>
+      <c r="P441" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>277.27695893408071</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A442" s="8">
         <v>441</v>
       </c>
@@ -22806,8 +26391,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>284.54235925985529</v>
       </c>
-    </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O442" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>291.65591824135169</v>
+      </c>
+      <c r="P442" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>277.42880027835889</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A443" s="8">
         <v>442</v>
       </c>
@@ -22856,8 +26449,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>284.69566654365184</v>
       </c>
-    </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O443" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>291.81305820724316</v>
+      </c>
+      <c r="P443" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>277.57827488006052</v>
+      </c>
+    </row>
+    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A444" s="8">
         <v>443</v>
       </c>
@@ -22906,8 +26507,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>284.22741075845778</v>
       </c>
-    </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O444" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>291.33309602741923</v>
+      </c>
+      <c r="P444" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>277.12172548949633</v>
+      </c>
+    </row>
+    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A445" s="8">
         <v>444</v>
       </c>
@@ -22956,8 +26565,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>283.42092886258791</v>
       </c>
-    </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O445" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>290.50645208415261</v>
+      </c>
+      <c r="P445" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>276.33540564102321</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A446" s="8">
         <v>445</v>
       </c>
@@ -23006,8 +26623,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>282.75179600066673</v>
       </c>
-    </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O446" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>289.82059090068338</v>
+      </c>
+      <c r="P446" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>275.68300110065007</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A447" s="8">
         <v>446</v>
       </c>
@@ -23056,8 +26681,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>282.09343929804396</v>
       </c>
-    </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O447" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>289.14577528049506</v>
+      </c>
+      <c r="P447" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>275.04110331559286</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A448" s="8">
         <v>447</v>
       </c>
@@ -23106,8 +26739,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>279.25110660406619</v>
       </c>
-    </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O448" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>286.23238426916782</v>
+      </c>
+      <c r="P448" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>272.26982893896457</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A449" s="8">
         <v>448</v>
       </c>
@@ -23156,8 +26797,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>275.38289445195687</v>
       </c>
-    </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O449" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>282.26746681325579</v>
+      </c>
+      <c r="P449" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>268.49832209065795</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A450" s="8">
         <v>449</v>
       </c>
@@ -23206,8 +26855,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>273.20066304803436</v>
       </c>
-    </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O450" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>280.03067962423523</v>
+      </c>
+      <c r="P450" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>266.37064647183348</v>
+      </c>
+    </row>
+    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A451" s="8">
         <v>450</v>
       </c>
@@ -23256,8 +26913,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>271.0646451479185</v>
       </c>
-    </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O451" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>277.84126127661648</v>
+      </c>
+      <c r="P451" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.28802901922052</v>
+      </c>
+    </row>
+    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A452" s="8">
         <v>451</v>
       </c>
@@ -23306,8 +26971,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>270.88487835306694</v>
       </c>
-    </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O452" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>277.65700031189363</v>
+      </c>
+      <c r="P452" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.11275639424025</v>
+      </c>
+    </row>
+    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A453" s="8">
         <v>452</v>
       </c>
@@ -23356,8 +27029,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>270.80563982382068</v>
       </c>
-    </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O453" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>277.5757808194162</v>
+      </c>
+      <c r="P453" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.03549882822517</v>
+      </c>
+    </row>
+    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A454" s="8">
         <v>453</v>
       </c>
@@ -23406,8 +27087,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>269.76912870501593</v>
       </c>
-    </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O454" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>276.51335692264132</v>
+      </c>
+      <c r="P454" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>263.02490048739054</v>
+      </c>
+    </row>
+    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A455" s="8">
         <v>454</v>
       </c>
@@ -23456,8 +27145,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>268.93491225229639</v>
       </c>
-    </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O455" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>275.65828505860378</v>
+      </c>
+      <c r="P455" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>262.21153944598899</v>
+      </c>
+    </row>
+    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A456" s="8">
         <v>455</v>
       </c>
@@ -23506,8 +27203,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>267.99355131188679</v>
       </c>
-    </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O456" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>274.69339009468393</v>
+      </c>
+      <c r="P456" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>261.29371252908965</v>
+      </c>
+    </row>
+    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A457" s="8">
         <v>456</v>
       </c>
@@ -23556,8 +27261,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>266.92737541956859</v>
       </c>
-    </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O457" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>273.6005598050578</v>
+      </c>
+      <c r="P457" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>260.25419103407938</v>
+      </c>
+    </row>
+    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A458" s="8">
         <v>457</v>
       </c>
@@ -23606,8 +27319,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>264.01576520612861</v>
       </c>
-    </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O458" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.61615933628184</v>
+      </c>
+      <c r="P458" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.41537107597537</v>
+      </c>
+    </row>
+    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A459" s="8">
         <v>458</v>
       </c>
@@ -23656,8 +27377,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>262.9027123709572</v>
       </c>
-    </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O459" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>269.47528018023115</v>
+      </c>
+      <c r="P459" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>256.33014456168326</v>
+      </c>
+    </row>
+    <row r="460" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A460" s="8">
         <v>459</v>
       </c>
@@ -23706,8 +27435,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>260.86453523254403</v>
       </c>
-    </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O460" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.38614861335765</v>
+      </c>
+      <c r="P460" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.34292185173044</v>
+      </c>
+    </row>
+    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A461" s="8">
         <v>460</v>
       </c>
@@ -23756,8 +27493,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>258.90080857754208</v>
       </c>
-    </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O461" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>265.37332879198061</v>
+      </c>
+      <c r="P461" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.42828836310352</v>
+      </c>
+    </row>
+    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A462" s="8">
         <v>461</v>
       </c>
@@ -23806,8 +27551,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>258.36858703944728</v>
       </c>
-    </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O462" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.82780171543345</v>
+      </c>
+      <c r="P462" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.9093723634611</v>
+      </c>
+    </row>
+    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A463" s="8">
         <v>462</v>
       </c>
@@ -23856,8 +27609,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>258.74285175375945</v>
       </c>
-    </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O463" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>265.21142304760343</v>
+      </c>
+      <c r="P463" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>252.27428045991547</v>
+      </c>
+    </row>
+    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A464" s="8">
         <v>463</v>
       </c>
@@ -23906,8 +27667,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>259.85983106894099</v>
       </c>
-    </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O464" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>266.35632684566451</v>
+      </c>
+      <c r="P464" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.36333529221747</v>
+      </c>
+    </row>
+    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A465" s="8">
         <v>464</v>
       </c>
@@ -23956,8 +27725,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>260.43746621831218</v>
       </c>
-    </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O465" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>266.94840287376996</v>
+      </c>
+      <c r="P465" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.92652956285437</v>
+      </c>
+    </row>
+    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A466" s="8">
         <v>465</v>
       </c>
@@ -24006,8 +27783,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>261.35333014877676</v>
       </c>
-    </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O466" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.88716340249618</v>
+      </c>
+      <c r="P466" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.81949689505734</v>
+      </c>
+    </row>
+    <row r="467" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A467" s="8">
         <v>466</v>
       </c>
@@ -24056,8 +27841,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>262.59788003980094</v>
       </c>
-    </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O467" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>269.16282704079595</v>
+      </c>
+      <c r="P467" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>256.03293303880594</v>
+      </c>
+    </row>
+    <row r="468" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A468" s="8">
         <v>467</v>
       </c>
@@ -24106,8 +27899,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>265.15529465265615</v>
       </c>
-    </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O468" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>271.78417701897257</v>
+      </c>
+      <c r="P468" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>258.52641228633973</v>
+      </c>
+    </row>
+    <row r="469" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A469" s="8">
         <v>468</v>
       </c>
@@ -24156,8 +27957,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>267.15317648516196</v>
       </c>
-    </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O469" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>273.83200589729103</v>
+      </c>
+      <c r="P469" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>260.4743470730329</v>
+      </c>
+    </row>
+    <row r="470" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A470" s="8">
         <v>469</v>
       </c>
@@ -24206,8 +28015,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>268.11581580986382</v>
       </c>
-    </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O470" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>274.81871120511039</v>
+      </c>
+      <c r="P470" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>261.41292041461725</v>
+      </c>
+    </row>
+    <row r="471" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A471" s="8">
         <v>470</v>
       </c>
@@ -24256,8 +28073,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>267.59917667995711</v>
       </c>
-    </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O471" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>274.28915609695605</v>
+      </c>
+      <c r="P471" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>260.90919726295817</v>
+      </c>
+    </row>
+    <row r="472" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A472" s="8">
         <v>471</v>
       </c>
@@ -24306,8 +28131,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>267.05478487766658</v>
       </c>
-    </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O472" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>273.73115449960824</v>
+      </c>
+      <c r="P472" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>260.37841525572492</v>
+      </c>
+    </row>
+    <row r="473" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A473" s="8">
         <v>472</v>
       </c>
@@ -24356,8 +28189,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>266.14981242603358</v>
       </c>
-    </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O473" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>272.80355773668441</v>
+      </c>
+      <c r="P473" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.49606711538274</v>
+      </c>
+    </row>
+    <row r="474" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A474" s="8">
         <v>473</v>
       </c>
@@ -24406,8 +28247,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>266.13526566550729</v>
       </c>
-    </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O474" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>272.78864730714497</v>
+      </c>
+      <c r="P474" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.48188402386961</v>
+      </c>
+    </row>
+    <row r="475" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A475" s="8">
         <v>474</v>
       </c>
@@ -24456,8 +28305,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>266.31657040324882</v>
       </c>
-    </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O475" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>272.97448466333003</v>
+      </c>
+      <c r="P475" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.6586561431676</v>
+      </c>
+    </row>
+    <row r="476" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A476" s="8">
         <v>475</v>
       </c>
@@ -24506,8 +28363,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>265.30784220127424</v>
       </c>
-    </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O476" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>271.94053825630607</v>
+      </c>
+      <c r="P476" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>258.67514614624241</v>
+      </c>
+    </row>
+    <row r="477" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A477" s="8">
         <v>476</v>
       </c>
@@ -24556,8 +28421,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>263.23536939121635</v>
       </c>
-    </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O477" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>269.81625362599675</v>
+      </c>
+      <c r="P477" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>256.65448515643595</v>
+      </c>
+    </row>
+    <row r="478" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A478" s="8">
         <v>477</v>
       </c>
@@ -24606,8 +28479,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>261.78541859402964</v>
       </c>
-    </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O478" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>268.33005405888036</v>
+      </c>
+      <c r="P478" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>255.24078312917891</v>
+      </c>
+    </row>
+    <row r="479" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A479" s="8">
         <v>478</v>
       </c>
@@ -24656,8 +28537,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>260.18111767543814</v>
       </c>
-    </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O479" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>266.6856456173241</v>
+      </c>
+      <c r="P479" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.67658973355219</v>
+      </c>
+    </row>
+    <row r="480" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A480" s="8">
         <v>479</v>
       </c>
@@ -24706,8 +28595,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>259.97657473035554</v>
       </c>
-    </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O480" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>266.47598909861443</v>
+      </c>
+      <c r="P480" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.47716036209664</v>
+      </c>
+    </row>
+    <row r="481" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A481" s="8">
         <v>480</v>
       </c>
@@ -24756,8 +28653,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>260.07479816876253</v>
       </c>
-    </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O481" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>266.57666812298157</v>
+      </c>
+      <c r="P481" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.57292821454345</v>
+      </c>
+    </row>
+    <row r="482" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A482" s="8">
         <v>481</v>
       </c>
@@ -24806,8 +28711,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>261.75448316721037</v>
       </c>
-    </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O482" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>268.29834524639062</v>
+      </c>
+      <c r="P482" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>255.21062108803011</v>
+      </c>
+    </row>
+    <row r="483" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A483" s="8">
         <v>482</v>
       </c>
@@ -24856,8 +28769,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>263.00721031179256</v>
       </c>
-    </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O483" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>269.5823905695874</v>
+      </c>
+      <c r="P483" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>256.43203005399772</v>
+      </c>
+    </row>
+    <row r="484" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A484" s="8">
         <v>483</v>
       </c>
@@ -24906,8 +28827,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>264.47395049942827</v>
       </c>
-    </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O484" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>271.08579926191396</v>
+      </c>
+      <c r="P484" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>257.86210173694258</v>
+      </c>
+    </row>
+    <row r="485" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A485" s="8">
         <v>484</v>
       </c>
@@ -24956,8 +28885,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>266.6078101314032</v>
       </c>
-    </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O485" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>273.2730053846883</v>
+      </c>
+      <c r="P485" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.94261487811809</v>
+      </c>
+    </row>
+    <row r="486" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A486" s="8">
         <v>485</v>
       </c>
@@ -25006,8 +28943,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>266.06364999386392</v>
       </c>
-    </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O486" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>272.71524124371052</v>
+      </c>
+      <c r="P486" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.41205874401732</v>
+      </c>
+    </row>
+    <row r="487" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A487" s="8">
         <v>486</v>
       </c>
@@ -25056,8 +29001,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>265.50932626636774</v>
       </c>
-    </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O487" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>272.14705942302692</v>
+      </c>
+      <c r="P487" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>258.87159310970856</v>
+      </c>
+    </row>
+    <row r="488" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A488" s="8">
         <v>487</v>
       </c>
@@ -25106,8 +29059,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>263.46590997068699</v>
       </c>
-    </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O488" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>270.05255771995417</v>
+      </c>
+      <c r="P488" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>256.87926222141982</v>
+      </c>
+    </row>
+    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A489" s="8">
         <v>488</v>
       </c>
@@ -25156,8 +29117,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>261.92471730537403</v>
       </c>
-    </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O489" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>268.47283523800837</v>
+      </c>
+      <c r="P489" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>255.37659937273969</v>
+      </c>
+    </row>
+    <row r="490" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A490" s="8">
         <v>489</v>
       </c>
@@ -25206,8 +29175,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>260.69203728570039</v>
       </c>
-    </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O490" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>267.20933821784291</v>
+      </c>
+      <c r="P490" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>254.17473635355788</v>
+      </c>
+    </row>
+    <row r="491" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A491" s="8">
         <v>490</v>
       </c>
@@ -25256,8 +29233,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>260.03724782026461</v>
       </c>
-    </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O491" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>266.53817901577122</v>
+      </c>
+      <c r="P491" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.536316624758</v>
+      </c>
+    </row>
+    <row r="492" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A492" s="8">
         <v>491</v>
       </c>
@@ -25306,8 +29291,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>259.50380201564286</v>
       </c>
-    </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O492" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>265.99139706603393</v>
+      </c>
+      <c r="P492" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.0162069652518</v>
+      </c>
+    </row>
+    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A493" s="8">
         <v>492</v>
       </c>
@@ -25356,8 +29349,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>257.85226086098214</v>
       </c>
-    </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O493" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>264.29856738250669</v>
+      </c>
+      <c r="P493" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>251.40595433945759</v>
+      </c>
+    </row>
+    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A494" s="8">
         <v>493</v>
       </c>
@@ -25406,8 +29407,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>255.23523321670825</v>
       </c>
-    </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O494" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>261.61611404712596</v>
+      </c>
+      <c r="P494" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>248.85435238629054</v>
+      </c>
+    </row>
+    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A495" s="8">
         <v>494</v>
       </c>
@@ -25456,8 +29465,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>253.06162905003515</v>
       </c>
-    </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O495" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>259.38816977628602</v>
+      </c>
+      <c r="P495" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>246.73508832378428</v>
+      </c>
+    </row>
+    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A496" s="8">
         <v>495</v>
       </c>
@@ -25506,8 +29523,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>250.36393452419986</v>
       </c>
-    </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O496" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>256.62303288730487</v>
+      </c>
+      <c r="P496" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>244.10483616109485</v>
+      </c>
+    </row>
+    <row r="497" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A497" s="8">
         <v>496</v>
       </c>
@@ -25556,8 +29581,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>247.17984421587954</v>
       </c>
-    </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O497" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>253.35934032127653</v>
+      </c>
+      <c r="P497" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>241.00034811048255</v>
+      </c>
+    </row>
+    <row r="498" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A498" s="8">
         <v>497</v>
       </c>
@@ -25606,8 +29639,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>243.3633856845783</v>
       </c>
-    </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O498" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>249.44747032669275</v>
+      </c>
+      <c r="P498" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>237.27930104246386</v>
+      </c>
+    </row>
+    <row r="499" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A499" s="8">
         <v>498</v>
       </c>
@@ -25656,8 +29697,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>238.70660359064732</v>
       </c>
-    </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O499" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>244.67426868041349</v>
+      </c>
+      <c r="P499" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>232.73893850088115</v>
+      </c>
+    </row>
+    <row r="500" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A500" s="8">
         <v>499</v>
       </c>
@@ -25706,8 +29755,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>238.01187402121326</v>
       </c>
-    </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O500" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>243.96217087174358</v>
+      </c>
+      <c r="P500" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>232.06157717068294</v>
+      </c>
+    </row>
+    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A501" s="8">
         <v>500</v>
       </c>
@@ -25756,8 +29813,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>238.03447945358653</v>
       </c>
-    </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O501" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>243.9853414399262</v>
+      </c>
+      <c r="P501" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>232.08361746724685</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A502" s="8">
         <v>501</v>
       </c>
@@ -25806,8 +29871,16 @@
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>238.0793880994064</v>
       </c>
-    </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O502" s="13">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>244.03137280189156</v>
+      </c>
+      <c r="P502" s="13">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>232.12740339692124</v>
+      </c>
+    </row>
+    <row r="503" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A503" s="8">
         <v>502</v>
       </c>
@@ -25855,6 +29928,14 @@
       <c r="N503" s="17">
         <f>3*testdata[[#This Row],[ema]]-3*testdata[[#This Row],[ema2]]+testdata[[#This Row],[ema3]]</f>
         <v>238.76900727279593</v>
+      </c>
+      <c r="O503" s="18">
+        <f>testdata[[#This Row],[tema]]+0.025*testdata[[#This Row],[tema]]</f>
+        <v>244.73823245461583</v>
+      </c>
+      <c r="P503" s="18">
+        <f>testdata[[#This Row],[tema]]-0.025*testdata[[#This Row],[tema]]</f>
+        <v>232.79978209097604</v>
       </c>
     </row>
   </sheetData>
